--- a/Music and Memory/BehaviouralResults/OlderAdults/OA_BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/OlderAdults/OA_BehaviouralResults-AllParticipants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="5100" windowWidth="33880" windowHeight="14540" tabRatio="592" activeTab="2"/>
+    <workbookView xWindow="440" yWindow="0" windowWidth="25140" windowHeight="14540" tabRatio="592"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic Info" sheetId="4" r:id="rId1"/>
@@ -1984,7 +1984,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1994,9 +1994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G20" sqref="G20"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3791,7 +3791,10 @@
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
+      <c r="D21" s="42">
+        <f>MIN(D2:D4,D6:D16)</f>
+        <v>64</v>
+      </c>
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
@@ -3832,7 +3835,10 @@
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="D22" s="42">
+        <f>MAX(D2:D4,D6:D16)</f>
+        <v>74</v>
+      </c>
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -4118,7 +4124,7 @@
     <row r="30" spans="1:39">
       <c r="D30">
         <f>AVERAGE(D3:D10,D12:D17,D19:D22,D24:D25,D27:D28)</f>
-        <v>69.812454212454213</v>
+        <v>69.716871363930181</v>
       </c>
       <c r="E30">
         <f>COUNTIF(E3:E28,"*Female*")</f>
@@ -4155,13 +4161,13 @@
     <row r="34" spans="4:4">
       <c r="D34">
         <f>AVERAGE(D3,D5:D10,D12:D17,D19,D21:D22,D25,D27:D28)</f>
-        <v>70.047337278106511</v>
+        <v>69.907692307692315</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35">
         <f>STDEV(D3,D5:D10,D12:D17,D19,D21:D22,D25,D27:D28)</f>
-        <v>2.5019791892520127</v>
+        <v>3.0121197844611891</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
